--- a/Budget1.xlsx
+++ b/Budget1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Projet-git\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\NewGit\myDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87001091-4E49-4978-B902-DB6C037AC110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A497327-E35E-4CD7-A75F-FBE0B386BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="29" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="26" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -20057,7 +20057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7487C8C7-3406-4E54-ADE1-2B167EC852B1}">
   <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -21291,7 +21291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8A3483-B416-4405-B16E-41B90F2A2DFA}">
   <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -22947,7 +22947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A0FB8E-CB12-475E-9D50-00930E5BD370}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -23834,8 +23834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94700D3-58F8-480F-AA59-9339E917FDF7}">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView topLeftCell="A60" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24656,8 +24656,8 @@
         <v>795000</v>
       </c>
       <c r="C75">
-        <f>73000</f>
-        <v>73000</v>
+        <f>73000+73000</f>
+        <v>146000</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -24670,7 +24670,7 @@
       </c>
       <c r="C79">
         <f>SUM(C67:C77)</f>
-        <v>2693250</v>
+        <v>2766250</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -24683,7 +24683,7 @@
       </c>
       <c r="C80">
         <f>C79/655</f>
-        <v>4111.8320610687024</v>
+        <v>4223.2824427480919</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -24691,7 +24691,7 @@
         <v>417</v>
       </c>
       <c r="B83">
-        <f>O23</f>
+        <f>2000+4000</f>
         <v>6000</v>
       </c>
     </row>
@@ -24701,7 +24701,7 @@
       </c>
       <c r="B85">
         <f>B83-C80</f>
-        <v>1888.1679389312976</v>
+        <v>1776.7175572519081</v>
       </c>
     </row>
   </sheetData>

--- a/Budget1.xlsx
+++ b/Budget1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\NewGit\myDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A497327-E35E-4CD7-A75F-FBE0B386BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28BAAF5-C7BA-4A1C-A84A-D455355AF962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="26" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="29" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -21291,7 +21291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8A3483-B416-4405-B16E-41B90F2A2DFA}">
   <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -23834,8 +23834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94700D3-58F8-480F-AA59-9339E917FDF7}">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24563,10 +24563,10 @@
       <c r="A67" t="s">
         <v>407</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="5">
         <v>364000</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="5">
         <v>364000</v>
       </c>
     </row>
@@ -24574,10 +24574,10 @@
       <c r="A68" t="s">
         <v>408</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="5">
         <v>396250</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="5">
         <v>396250</v>
       </c>
     </row>
@@ -24585,10 +24585,10 @@
       <c r="A69" t="s">
         <v>409</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="5">
         <v>350000</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="5">
         <v>350000</v>
       </c>
     </row>
@@ -24618,10 +24618,10 @@
       <c r="A72" t="s">
         <v>416</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="5">
         <v>200000</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="5">
         <v>200000</v>
       </c>
     </row>
@@ -24644,7 +24644,8 @@
         <v>2100000</v>
       </c>
       <c r="C74">
-        <v>500000</v>
+        <f>500000+200000</f>
+        <v>700000</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -24656,8 +24657,8 @@
         <v>795000</v>
       </c>
       <c r="C75">
-        <f>73000+73000</f>
-        <v>146000</v>
+        <f>73000+73000+73000</f>
+        <v>219000</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -24670,7 +24671,7 @@
       </c>
       <c r="C79">
         <f>SUM(C67:C77)</f>
-        <v>2766250</v>
+        <v>3039250</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -24683,7 +24684,7 @@
       </c>
       <c r="C80">
         <f>C79/655</f>
-        <v>4223.2824427480919</v>
+        <v>4640.0763358778622</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -24701,7 +24702,7 @@
       </c>
       <c r="B85">
         <f>B83-C80</f>
-        <v>1776.7175572519081</v>
+        <v>1359.9236641221378</v>
       </c>
     </row>
   </sheetData>

--- a/Budget1.xlsx
+++ b/Budget1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\NewGit\myDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28BAAF5-C7BA-4A1C-A84A-D455355AF962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCE1A3A-A194-402F-8B7D-049994770CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="29" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="429">
   <si>
     <t>Loyer</t>
   </si>
@@ -1352,6 +1352,9 @@
   </si>
   <si>
     <t>avirl</t>
+  </si>
+  <si>
+    <t>CANAPé</t>
   </si>
 </sst>
 </file>
@@ -21291,8 +21294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8A3483-B416-4405-B16E-41B90F2A2DFA}">
   <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21755,8 +21758,12 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C16" s="11">
+        <v>248</v>
+      </c>
       <c r="D16" s="11"/>
       <c r="E16" s="9" t="s">
         <v>390</v>
@@ -21867,7 +21874,7 @@
       </c>
       <c r="C21" s="11">
         <f>SUM(C7:C18)</f>
-        <v>2900</v>
+        <v>3148</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -21969,7 +21976,7 @@
       </c>
       <c r="D25" s="11">
         <f>C21+F21+I21</f>
-        <v>5940</v>
+        <v>6188</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -22041,7 +22048,7 @@
       </c>
       <c r="C28" s="11">
         <f>ABS(G4-D25)</f>
-        <v>5940</v>
+        <v>6188</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -22156,7 +22163,7 @@
       </c>
       <c r="C33" s="11">
         <f>H4-D25</f>
-        <v>4160</v>
+        <v>3912</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -22166,7 +22173,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="11">
         <f>C28+L28</f>
-        <v>6444</v>
+        <v>6692</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
@@ -22528,7 +22535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B974066F-70AB-4CE0-9413-18C0CA619219}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -22948,7 +22955,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23834,8 +23841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94700D3-58F8-480F-AA59-9339E917FDF7}">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24564,10 +24571,12 @@
         <v>407</v>
       </c>
       <c r="B67" s="5">
-        <v>364000</v>
+        <f>364000+9000</f>
+        <v>373000</v>
       </c>
       <c r="C67" s="5">
-        <v>364000</v>
+        <f>364000+9000</f>
+        <v>373000</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -24630,10 +24639,12 @@
         <v>414</v>
       </c>
       <c r="B73">
-        <v>450000</v>
+        <f>450000+140000</f>
+        <v>590000</v>
       </c>
       <c r="C73">
-        <v>250000</v>
+        <f>250000+60000</f>
+        <v>310000</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -24667,11 +24678,11 @@
       </c>
       <c r="B79">
         <f>SUM(B67:B77)</f>
-        <v>5315250</v>
+        <v>5464250</v>
       </c>
       <c r="C79">
         <f>SUM(C67:C77)</f>
-        <v>3039250</v>
+        <v>3108250</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -24680,11 +24691,11 @@
       </c>
       <c r="B80">
         <f>B79/655</f>
-        <v>8114.8854961832058</v>
+        <v>8342.3664122137397</v>
       </c>
       <c r="C80">
         <f>C79/655</f>
-        <v>4640.0763358778622</v>
+        <v>4745.419847328244</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -24702,7 +24713,7 @@
       </c>
       <c r="B85">
         <f>B83-C80</f>
-        <v>1359.9236641221378</v>
+        <v>1254.580152671756</v>
       </c>
     </row>
   </sheetData>

--- a/Budget1.xlsx
+++ b/Budget1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\NewGit\myDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCE1A3A-A194-402F-8B7D-049994770CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EBCA33-4426-48C1-9E37-1A7D736E79AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="29" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="431">
   <si>
     <t>Loyer</t>
   </si>
@@ -1355,6 +1355,12 @@
   </si>
   <si>
     <t>CANAPé</t>
+  </si>
+  <si>
+    <t>resto</t>
+  </si>
+  <si>
+    <t>turk</t>
   </si>
 </sst>
 </file>
@@ -21292,10 +21298,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8A3483-B416-4405-B16E-41B90F2A2DFA}">
-  <dimension ref="A1:T124"/>
+  <dimension ref="A1:T125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21769,7 +21775,7 @@
         <v>390</v>
       </c>
       <c r="F16" s="11">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -21787,8 +21793,12 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C17" s="11">
+        <v>104</v>
+      </c>
       <c r="D17" s="11"/>
       <c r="E17" s="9"/>
       <c r="F17" s="11"/>
@@ -21808,8 +21818,12 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C18" s="11">
+        <v>89</v>
+      </c>
       <c r="D18" s="11"/>
       <c r="E18" s="9"/>
       <c r="F18" s="11"/>
@@ -21819,7 +21833,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
+      <c r="M18" s="9"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
@@ -21832,7 +21846,7 @@
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -21853,6 +21867,8 @@
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -21869,60 +21885,58 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="11">
-        <f>SUM(C7:C18)</f>
-        <v>3148</v>
-      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11">
-        <f>SUM(F7:F19)+150</f>
-        <v>3040</v>
-      </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="11">
-        <f>SUM(I7:I18)</f>
-        <v>0</v>
-      </c>
+      <c r="I21" s="11"/>
       <c r="J21" s="12"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="11">
-        <f>SUM(N7:N18)</f>
-        <v>976</v>
-      </c>
+      <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="11">
-        <f>SUM(Q7:Q17)</f>
-        <v>0</v>
-      </c>
+      <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="11">
+        <f>SUM(C7:C19)</f>
+        <v>3341</v>
+      </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="11">
+        <f>SUM(F7:F20)+150</f>
+        <v>3061</v>
+      </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="11">
+        <f>SUM(I7:I19)</f>
+        <v>0</v>
+      </c>
       <c r="J22" s="12"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+      <c r="N22" s="11">
+        <f>SUM(N7:N19)</f>
+        <v>976</v>
+      </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
+      <c r="Q22" s="11">
+        <f>SUM(Q7:Q18)</f>
+        <v>0</v>
+      </c>
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
@@ -21971,30 +21985,20 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="11">
-        <f>C21+F21+I21</f>
-        <v>6188</v>
-      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
-      <c r="P25" s="11">
-        <f>N21+Q21</f>
-        <v>976</v>
-      </c>
+      <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
@@ -22002,20 +22006,30 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="11">
+        <f>C22+F22+I22</f>
+        <v>6402</v>
+      </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="11"/>
+      <c r="K26" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
+      <c r="P26" s="11">
+        <f>N22+Q22</f>
+        <v>976</v>
+      </c>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
@@ -22043,13 +22057,8 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
-      <c r="B28" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" s="11">
-        <f>ABS(G4-D25)</f>
-        <v>6188</v>
-      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -22057,13 +22066,8 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="L28" s="11">
-        <f>O4-P25</f>
-        <v>504</v>
-      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
@@ -22074,8 +22078,13 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="11">
+        <f>ABS(G4-D26)</f>
+        <v>6402</v>
+      </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -22083,8 +22092,13 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="12"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
+      <c r="K29" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L29" s="11">
+        <f>O4-P26</f>
+        <v>504</v>
+      </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
@@ -22094,24 +22108,24 @@
       <c r="S29" s="12"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -22136,45 +22150,37 @@
       <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="11">
-        <f>H4-D25</f>
-        <v>3912</v>
-      </c>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="11">
-        <f>C28+L28</f>
-        <v>6692</v>
-      </c>
+      <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
@@ -22187,13 +22193,23 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
+      <c r="B34" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="11">
+        <f>H4-D26</f>
+        <v>3698</v>
+      </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
+      <c r="J34" s="11">
+        <f>C29+L29</f>
+        <v>6906</v>
+      </c>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
@@ -22205,77 +22221,82 @@
       <c r="S34" s="11"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E35">
+      <c r="A35" s="9"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E36">
         <f>5.2+13.8+10.96+13+13+21+6.99+47+62+12+68+40</f>
         <v>312.95</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I38" t="s">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
         <v>376</v>
       </c>
-      <c r="J38">
+      <c r="J39">
         <v>39</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L39" t="s">
         <v>382</v>
       </c>
-      <c r="M38">
-        <f>SUM(J38:J57)</f>
+      <c r="M39">
+        <f>SUM(J39:J58)</f>
         <v>22002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E39" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="F39">
-        <v>500</v>
-      </c>
-      <c r="I39" t="s">
-        <v>377</v>
-      </c>
-      <c r="J39">
-        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E40" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F40">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="I40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J40">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E41" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F41">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="I41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J41">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E42" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F42">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J42">
         <v>20</v>
@@ -22283,139 +22304,145 @@
     </row>
     <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E43" s="22" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F43">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I43" t="s">
         <v>380</v>
       </c>
       <c r="J43">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E44" s="22" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F44">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I44" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J44">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E45" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="I45" t="s">
+        <v>381</v>
+      </c>
+      <c r="J45">
         <v>67</v>
-      </c>
-      <c r="I45" t="s">
-        <v>101</v>
-      </c>
-      <c r="J45">
-        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E46" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F46">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I46" t="s">
-        <v>383</v>
+        <v>101</v>
       </c>
       <c r="J46">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E47" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F47">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J47">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E48" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F48">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="I48" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J48">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E49" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="F49">
+        <v>300</v>
+      </c>
+      <c r="I49" t="s">
+        <v>385</v>
+      </c>
+      <c r="J49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E50" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <v>100</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I50" t="s">
         <v>108</v>
       </c>
-      <c r="J49">
+      <c r="J50">
         <v>20914</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I50" t="s">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
         <v>387</v>
       </c>
-      <c r="J50">
+      <c r="J51">
         <v>357</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J51">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J52">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F53">
-        <f>SUM(F39:F49)</f>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f>SUM(F40:F50)</f>
         <v>4687</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="14" t="s">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C62" s="11">
         <v>1900</v>
-      </c>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B97">
-        <v>3000</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
-        <v>2500</v>
-      </c>
-      <c r="J98">
         <v>3000</v>
       </c>
     </row>
@@ -22424,47 +22451,50 @@
         <v>2500</v>
       </c>
       <c r="J99">
-        <v>600</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
-        <v>800</v>
+        <v>2500</v>
+      </c>
+      <c r="J100">
+        <v>600</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B102">
         <v>700</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B105">
-        <f>SUM(B97:B101)</f>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <f>SUM(B98:B102)</f>
         <v>9500</v>
       </c>
-      <c r="D105">
-        <f>B105-7000</f>
+      <c r="D106">
+        <f>B106-7000</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="P106">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P107">
         <v>126</v>
-      </c>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="P107" s="11">
-        <v>12</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P108" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P109" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
@@ -22479,50 +22509,55 @@
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P112" s="11">
-        <v>3.99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="P113" s="11">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P114" s="11">
         <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E114">
-        <v>1400</v>
-      </c>
-      <c r="P114" s="11">
-        <v>75</v>
       </c>
     </row>
     <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="P115" s="11">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E116">
+        <v>1300</v>
+      </c>
+      <c r="P116" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E117">
         <v>950</v>
       </c>
-      <c r="P116" s="11"/>
-    </row>
-    <row r="117" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="P117" s="11">
+      <c r="P117" s="11"/>
+    </row>
+    <row r="118" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P118" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E120">
-        <f>SUM(E114:E118)</f>
+    <row r="121" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <f>SUM(E115:E119)</f>
         <v>3650</v>
       </c>
     </row>
-    <row r="124" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="P124">
-        <f>SUM(P104:P121)</f>
+    <row r="125" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P125">
+        <f>SUM(P105:P122)</f>
         <v>516.99</v>
       </c>
     </row>
@@ -23841,8 +23876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94700D3-58F8-480F-AA59-9339E917FDF7}">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="106" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24571,12 +24606,12 @@
         <v>407</v>
       </c>
       <c r="B67" s="5">
-        <f>364000+9000</f>
-        <v>373000</v>
+        <f>364000+9000+56500</f>
+        <v>429500</v>
       </c>
       <c r="C67" s="5">
-        <f>364000+9000</f>
-        <v>373000</v>
+        <f>364000+9000+56500</f>
+        <v>429500</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -24678,11 +24713,11 @@
       </c>
       <c r="B79">
         <f>SUM(B67:B77)</f>
-        <v>5464250</v>
+        <v>5520750</v>
       </c>
       <c r="C79">
         <f>SUM(C67:C77)</f>
-        <v>3108250</v>
+        <v>3164750</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -24691,11 +24726,11 @@
       </c>
       <c r="B80">
         <f>B79/655</f>
-        <v>8342.3664122137397</v>
+        <v>8428.6259541984728</v>
       </c>
       <c r="C80">
         <f>C79/655</f>
-        <v>4745.419847328244</v>
+        <v>4831.679389312977</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -24713,7 +24748,7 @@
       </c>
       <c r="B85">
         <f>B83-C80</f>
-        <v>1254.580152671756</v>
+        <v>1168.320610687023</v>
       </c>
     </row>
   </sheetData>

--- a/Budget1.xlsx
+++ b/Budget1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\NewGit\myDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EBCA33-4426-48C1-9E37-1A7D736E79AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7F6BFE-A1B3-4BF9-9DC8-7CF293313630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="29" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
@@ -21300,7 +21300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8A3483-B416-4405-B16E-41B90F2A2DFA}">
   <dimension ref="A1:T125"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -23876,8 +23876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94700D3-58F8-480F-AA59-9339E917FDF7}">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="106" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24703,8 +24703,8 @@
         <v>795000</v>
       </c>
       <c r="C75">
-        <f>73000+73000+73000</f>
-        <v>219000</v>
+        <f>73000+73000+73000+73000</f>
+        <v>292000</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -24717,7 +24717,7 @@
       </c>
       <c r="C79">
         <f>SUM(C67:C77)</f>
-        <v>3164750</v>
+        <v>3237750</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -24730,7 +24730,7 @@
       </c>
       <c r="C80">
         <f>C79/655</f>
-        <v>4831.679389312977</v>
+        <v>4943.1297709923665</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -24738,8 +24738,8 @@
         <v>417</v>
       </c>
       <c r="B83">
-        <f>2000+4000</f>
-        <v>6000</v>
+        <f>2000+4000+3000</f>
+        <v>9000</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -24748,7 +24748,7 @@
       </c>
       <c r="B85">
         <f>B83-C80</f>
-        <v>1168.320610687023</v>
+        <v>4056.8702290076335</v>
       </c>
     </row>
   </sheetData>

--- a/Budget1.xlsx
+++ b/Budget1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\NewGit\myDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7F6BFE-A1B3-4BF9-9DC8-7CF293313630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4978B9B6-8B9D-4C7E-8942-AF92028DB2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="29" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
@@ -22570,8 +22570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B974066F-70AB-4CE0-9413-18C0CA619219}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22782,7 +22782,7 @@
       </c>
       <c r="B20">
         <f>B6-F41</f>
-        <v>20000</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -22853,7 +22853,9 @@
       <c r="A29" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="17">
+        <v>500</v>
+      </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -22961,7 +22963,7 @@
       </c>
       <c r="B41" s="18">
         <f>SUM(B27:B39)</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C41" s="18">
         <f>SUM(C27:C39)</f>
@@ -22977,7 +22979,7 @@
       </c>
       <c r="F41" s="18">
         <f>SUM(B41:E41)</f>
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -23877,7 +23879,7 @@
   <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24640,21 +24642,21 @@
       <c r="A70" t="s">
         <v>410</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="5">
         <v>400000</v>
       </c>
-      <c r="C70">
-        <v>300000</v>
+      <c r="C70" s="5">
+        <v>400000</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>412</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="5">
         <v>260000</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="5">
         <v>260000</v>
       </c>
     </row>
@@ -24703,8 +24705,8 @@
         <v>795000</v>
       </c>
       <c r="C75">
-        <f>73000+73000+73000+73000</f>
-        <v>292000</v>
+        <f>73000+73000+73000+73000+73000</f>
+        <v>365000</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -24717,7 +24719,7 @@
       </c>
       <c r="C79">
         <f>SUM(C67:C77)</f>
-        <v>3237750</v>
+        <v>3410750</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -24730,7 +24732,7 @@
       </c>
       <c r="C80">
         <f>C79/655</f>
-        <v>4943.1297709923665</v>
+        <v>5207.2519083969464</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -24748,7 +24750,7 @@
       </c>
       <c r="B85">
         <f>B83-C80</f>
-        <v>4056.8702290076335</v>
+        <v>3792.7480916030536</v>
       </c>
     </row>
   </sheetData>
@@ -24760,7 +24762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949D250C-39B2-4E80-98CE-CD0726DE900E}">
   <dimension ref="A3:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/Budget1.xlsx
+++ b/Budget1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\NewGit\myDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4978B9B6-8B9D-4C7E-8942-AF92028DB2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D68BD5C-1265-4619-8B1F-0FC418086FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="29" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" firstSheet="20" activeTab="29" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="432">
   <si>
     <t>Loyer</t>
   </si>
@@ -1361,6 +1361,9 @@
   </si>
   <si>
     <t>turk</t>
+  </si>
+  <si>
+    <t>electricité</t>
   </si>
 </sst>
 </file>
@@ -23878,8 +23881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94700D3-58F8-480F-AA59-9339E917FDF7}">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24692,8 +24695,8 @@
         <v>2100000</v>
       </c>
       <c r="C74">
-        <f>500000+200000</f>
-        <v>700000</v>
+        <f>500000+200000+300000</f>
+        <v>1000000</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -24709,6 +24712,15 @@
         <v>365000</v>
       </c>
     </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>431</v>
+      </c>
+      <c r="C76">
+        <f>201000</f>
+        <v>201000</v>
+      </c>
+    </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
@@ -24719,7 +24731,7 @@
       </c>
       <c r="C79">
         <f>SUM(C67:C77)</f>
-        <v>3410750</v>
+        <v>3911750</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -24732,7 +24744,7 @@
       </c>
       <c r="C80">
         <f>C79/655</f>
-        <v>5207.2519083969464</v>
+        <v>5972.1374045801531</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -24750,7 +24762,7 @@
       </c>
       <c r="B85">
         <f>B83-C80</f>
-        <v>3792.7480916030536</v>
+        <v>3027.8625954198469</v>
       </c>
     </row>
   </sheetData>

--- a/Budget1.xlsx
+++ b/Budget1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\NewGit\myDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D68BD5C-1265-4619-8B1F-0FC418086FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134BAB6F-8AA1-494E-B3FE-9141E6DEB594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" firstSheet="20" activeTab="29" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="29" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
   <sheets>
     <sheet name="Fevrier" sheetId="3" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="436">
   <si>
     <t>Loyer</t>
   </si>
@@ -1364,6 +1364,18 @@
   </si>
   <si>
     <t>electricité</t>
+  </si>
+  <si>
+    <t>metalique</t>
+  </si>
+  <si>
+    <t>divers</t>
+  </si>
+  <si>
+    <t>Carreau Matos</t>
+  </si>
+  <si>
+    <t>Main d'œuvre carreau</t>
   </si>
 </sst>
 </file>
@@ -23879,10 +23891,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94700D3-58F8-480F-AA59-9339E917FDF7}">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24714,55 +24726,91 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>432</v>
+      </c>
+      <c r="B76">
+        <v>675000</v>
+      </c>
+      <c r="C76">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>431</v>
       </c>
-      <c r="C76">
-        <f>201000</f>
-        <v>201000</v>
+      <c r="C77">
+        <f>201000+150000</f>
+        <v>351000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>434</v>
+      </c>
+      <c r="B78">
+        <v>1000000</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>435</v>
       </c>
       <c r="B79">
-        <f>SUM(B67:B77)</f>
-        <v>5520750</v>
-      </c>
-      <c r="C79">
-        <f>SUM(C67:C77)</f>
-        <v>3911750</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>433</v>
+      </c>
+      <c r="C80">
+        <f>200000</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <f>SUM(B67:B80)</f>
+        <v>7595750</v>
+      </c>
+      <c r="C82">
+        <f>SUM(C67:C80)</f>
+        <v>4561750</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>421</v>
       </c>
-      <c r="B80">
-        <f>B79/655</f>
-        <v>8428.6259541984728</v>
-      </c>
-      <c r="C80">
-        <f>C79/655</f>
-        <v>5972.1374045801531</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B83">
+        <f>B82/655</f>
+        <v>11596.564885496184</v>
+      </c>
+      <c r="C83">
+        <f>C82/655</f>
+        <v>6964.5038167938928</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>417</v>
       </c>
-      <c r="B83">
+      <c r="B86">
         <f>2000+4000+3000</f>
         <v>9000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>99</v>
       </c>
-      <c r="B85">
-        <f>B83-C80</f>
-        <v>3027.8625954198469</v>
+      <c r="B88">
+        <f>B86-C83</f>
+        <v>2035.4961832061072</v>
       </c>
     </row>
   </sheetData>

--- a/Budget1.xlsx
+++ b/Budget1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\NewGit\myDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134BAB6F-8AA1-494E-B3FE-9141E6DEB594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402BC44D-A772-4A87-B98F-8B0E3D36B792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="20" activeTab="29" xr2:uid="{27B7E826-E620-B34C-81E1-46A3DBC74E62}"/>
   </bookViews>
@@ -23893,8 +23893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94700D3-58F8-480F-AA59-9339E917FDF7}">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24707,8 +24707,8 @@
         <v>2100000</v>
       </c>
       <c r="C74">
-        <f>500000+200000+300000</f>
-        <v>1000000</v>
+        <f>500000+200000+300000+200000</f>
+        <v>1200000</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -24779,7 +24779,7 @@
       </c>
       <c r="C82">
         <f>SUM(C67:C80)</f>
-        <v>4561750</v>
+        <v>4761750</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -24792,7 +24792,7 @@
       </c>
       <c r="C83">
         <f>C82/655</f>
-        <v>6964.5038167938928</v>
+        <v>7269.8473282442746</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -24810,7 +24810,7 @@
       </c>
       <c r="B88">
         <f>B86-C83</f>
-        <v>2035.4961832061072</v>
+        <v>1730.1526717557254</v>
       </c>
     </row>
   </sheetData>
